--- a/data/ORCAY (TRY).xlsx
+++ b/data/ORCAY (TRY).xlsx
@@ -3559,6 +3559,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-935356</v>
+      </c>
       <c r="C108">
         <v>-865398.0516479469</v>
       </c>
